--- a/biology/Médecine/Marcel_Garnier_(médecin)/Marcel_Garnier_(médecin).xlsx
+++ b/biology/Médecine/Marcel_Garnier_(médecin)/Marcel_Garnier_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marcel_Garnier_(m%C3%A9decin)</t>
+          <t>Marcel_Garnier_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcel Garnier, né le 28 septembre 1870 à Paris 5e et mort en janvier 1940 à Meung-sur-Loire, est un médecin français. Il est connu comme co-auteur, avec Valery Delamare, d'un dictionnaire francophone des termes techniques de médecine dont la première édition date de 1900, récompensé par l'Académie française en 1932.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marcel_Garnier_(m%C3%A9decin)</t>
+          <t>Marcel_Garnier_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marcel, Jules Alfred Garnier naît le 28 septembre 1870 dans le cinquième arrondissement de Paris[1] et c'est dans cette ville que se déroulera sa carrière hospitalo-universitaire : il soutient sa thèse de doctorat en médecine en 1899. Il est successivement externe (1892), interne des hôpitaux de Paris (1893-1895), Médecin des Hôpitaux de Paris et enfin professeur agrégé et chef de service à l'hôpital Lariboisière[2].
-Durant la première Guerre mondiale, il est médecin major de première classe à l'hôpital central de Bar-le-Duc. Il est fait chevalier de la Légion d'honneur le 25 décembre 1916[3].
-Marcel Garnier est mort en janvier 1940 à Meung-sur-Loire[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marcel, Jules Alfred Garnier naît le 28 septembre 1870 dans le cinquième arrondissement de Paris et c'est dans cette ville que se déroulera sa carrière hospitalo-universitaire : il soutient sa thèse de doctorat en médecine en 1899. Il est successivement externe (1892), interne des hôpitaux de Paris (1893-1895), Médecin des Hôpitaux de Paris et enfin professeur agrégé et chef de service à l'hôpital Lariboisière.
+Durant la première Guerre mondiale, il est médecin major de première classe à l'hôpital central de Bar-le-Duc. Il est fait chevalier de la Légion d'honneur le 25 décembre 1916.
+Marcel Garnier est mort en janvier 1940 à Meung-sur-Loire.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marcel_Garnier_(m%C3%A9decin)</t>
+          <t>Marcel_Garnier_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur (1916).</t>
         </is>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marcel_Garnier_(m%C3%A9decin)</t>
+          <t>Marcel_Garnier_(médecin)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Dictionnaire des termes techniques de médecine (avec Valery Delamare) ; préface de G. H. Roger, Paris : A. Maloine éditeur, 1900. Ouvrage ayant fait l'objet d'une trentaine de rééditions en français et traduit en plusieurs langues, dont l'italien, l'espagnol, le portugais et le vietnamien[5].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dictionnaire des termes techniques de médecine (avec Valery Delamare) ; préface de G. H. Roger, Paris : A. Maloine éditeur, 1900. Ouvrage ayant fait l'objet d'une trentaine de rééditions en français et traduit en plusieurs langues, dont l'italien, l'espagnol, le portugais et le vietnamien.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Marcel_Garnier_(m%C3%A9decin)</t>
+          <t>Marcel_Garnier_(médecin)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +622,9 @@
           <t>Chronologie des éditions françaises du « Garnier-Delamare »</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cette liste non exhaustive donne les années des principales rééditions, nécessitées par les mises à jour du vocabulaire médical au cours du XXe siècle, du Dictionnaire des termes techniques de médecine, devenu Dictionnaire des termes de médecine à sa vingt-deuxième édition de 1989, puis Dictionnaire illustré des termes de médecine à sa trentième édition de 2009 :
 1900 : première édition, avec préface de G. H. Roger, Paris : A. Maloine éditeur
